--- a/WebMobilePhone_Website/wwwroot/Template/baocao.xlsx
+++ b/WebMobilePhone_Website/wwwroot/Template/baocao.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DoAn\source\WebMobilePhone\WebMobilePhone\wwwroot\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LEARNING\DoAnNamCuoi\WebMobilePhone\WebMobilePhone_Website\wwwroot\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA970CC-5BA6-4704-9C69-2B6CB3A5C21B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7860" tabRatio="546"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" tabRatio="546" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="11" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>BÁO CÁO SẢN LƯỢNG</t>
   </si>
@@ -42,9 +43,6 @@
     <t>C</t>
   </si>
   <si>
-    <t>Hưng Yên, ngày……..tháng…….năm………..</t>
-  </si>
-  <si>
     <t>Lập biểu</t>
   </si>
   <si>
@@ -57,9 +55,6 @@
     <t>Doanh số</t>
   </si>
   <si>
-    <t>CÔNG TY Điện Thoại THMobile</t>
-  </si>
-  <si>
     <t>NHỔN-HÀ NỘI</t>
   </si>
   <si>
@@ -76,12 +71,21 @@
   </si>
   <si>
     <t>Top 2 sản phẩm bán chạy nhất</t>
+  </si>
+  <si>
+    <t>VTMoblile</t>
+  </si>
+  <si>
+    <t>CÔNG TY Điện Thoại VTMobile</t>
+  </si>
+  <si>
+    <t>Hà Nội, ngày……..tháng…….năm………..</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0;[Red]#,##0"/>
@@ -418,28 +422,28 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Dấu phẩy" xfId="2" builtinId="3"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -454,51 +458,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>216877</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>29308</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>913988</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>197022</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="216877" y="29308"/>
-          <a:ext cx="2004234" cy="853514"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Chủ đề Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -573,6 +534,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -608,6 +586,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -783,35 +778,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:K3"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="6.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" style="12" customWidth="1"/>
-    <col min="4" max="4" width="22.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" style="18" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" style="15" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" style="23" customWidth="1"/>
-    <col min="8" max="8" width="17.77734375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.77734375" style="18" customWidth="1"/>
-    <col min="10" max="10" width="12.21875" style="21" customWidth="1"/>
-    <col min="11" max="11" width="9.21875" style="26" customWidth="1"/>
-    <col min="12" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="1" width="6.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="18" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="15" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="23" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="18" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" style="21" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" style="26" customWidth="1"/>
+    <col min="12" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" customHeight="1">
-      <c r="A1" s="43"/>
+      <c r="A1" s="43" t="s">
+        <v>17</v>
+      </c>
       <c r="B1" s="44"/>
       <c r="C1" s="45"/>
       <c r="D1" s="33" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E1" s="33"/>
       <c r="F1" s="33"/>
@@ -826,7 +823,7 @@
       <c r="B2" s="44"/>
       <c r="C2" s="45"/>
       <c r="D2" s="33" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E2" s="33"/>
       <c r="F2" s="33"/>
@@ -871,19 +868,19 @@
         <v>2</v>
       </c>
       <c r="B5" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="31" t="s">
-        <v>11</v>
-      </c>
       <c r="D5" s="37" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E5" s="38"/>
       <c r="F5" s="38"/>
       <c r="G5" s="39"/>
       <c r="H5" s="37" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I5" s="38"/>
       <c r="J5" s="38"/>
@@ -902,7 +899,7 @@
       <c r="J6" s="41"/>
       <c r="K6" s="42"/>
     </row>
-    <row r="7" spans="1:11" ht="27.6">
+    <row r="7" spans="1:11" ht="30">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -916,25 +913,25 @@
         <v>3</v>
       </c>
       <c r="E7" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="28" t="s">
         <v>14</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="28" t="s">
-        <v>16</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I7" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="24" t="s">
         <v>14</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="24" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -952,23 +949,23 @@
     </row>
     <row r="9" spans="1:11">
       <c r="I9" s="20" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="J10" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="J13" s="21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="K14" s="9"/>
     </row>
-    <row r="15" spans="1:11" ht="16.2">
+    <row r="15" spans="1:11">
       <c r="K15" s="27"/>
     </row>
     <row r="18" spans="2:2">
@@ -1013,6 +1010,5 @@
   </mergeCells>
   <pageMargins left="0.28000000000000003" right="0.19" top="0.37" bottom="0.31" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/WebMobilePhone_Website/wwwroot/Template/baocao.xlsx
+++ b/WebMobilePhone_Website/wwwroot/Template/baocao.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LEARNING\DoAnNamCuoi\WebMobilePhone\WebMobilePhone_Website\wwwroot\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA970CC-5BA6-4704-9C69-2B6CB3A5C21B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FD5EB9-B6C3-4DC6-B08C-010FA32BB3E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" tabRatio="546" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="546" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="11" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>BÁO CÁO SẢN LƯỢNG</t>
   </si>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t>Top 2 sản phẩm bán chạy nhất</t>
-  </si>
-  <si>
-    <t>VTMoblile</t>
   </si>
   <si>
     <t>CÔNG TY Điện Thoại VTMobile</t>
@@ -456,6 +453,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>65942</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>730354</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>173683</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Hình ảnh 1" descr="VTMobile - Hệ thống bán lẻ điện thoại cũ mới tốt giá rẻ uy tín nhất Việt Nam">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ACDDD54-7D91-F1D5-C3EA-97C689702D65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="190501" y="65942"/>
+          <a:ext cx="1536315" cy="789145"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -782,14 +845,14 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="6.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="12" customWidth="1"/>
     <col min="4" max="4" width="22.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" style="18" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" style="15" customWidth="1"/>
@@ -802,13 +865,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" customHeight="1">
-      <c r="A1" s="43" t="s">
-        <v>17</v>
-      </c>
+      <c r="A1" s="43"/>
       <c r="B1" s="44"/>
       <c r="C1" s="45"/>
       <c r="D1" s="33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E1" s="33"/>
       <c r="F1" s="33"/>
@@ -949,13 +1010,16 @@
     </row>
     <row r="9" spans="1:11">
       <c r="I9" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="J10" s="15" t="s">
         <v>7</v>
       </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="E11"/>
     </row>
     <row r="13" spans="1:11">
       <c r="J13" s="21" t="s">
@@ -1010,5 +1074,6 @@
   </mergeCells>
   <pageMargins left="0.28000000000000003" right="0.19" top="0.37" bottom="0.31" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/WebMobilePhone_Website/wwwroot/Template/baocao.xlsx
+++ b/WebMobilePhone_Website/wwwroot/Template/baocao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LEARNING\DoAnNamCuoi\WebMobilePhone\WebMobilePhone_Website\wwwroot\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FD5EB9-B6C3-4DC6-B08C-010FA32BB3E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DA1AAD-F1E7-4776-9C69-A3A3921061EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="546" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,14 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>BÁO CÁO SẢN LƯỢNG</t>
   </si>
   <si>
-    <t>Từ ngày………... Đến ngày…………..</t>
-  </si>
-  <si>
     <t>STT</t>
   </si>
   <si>
@@ -37,61 +34,51 @@
     <t>A</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>Lập biểu</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Ngày</t>
-  </si>
-  <si>
     <t>Doanh số</t>
   </si>
   <si>
     <t>NHỔN-HÀ NỘI</t>
   </si>
   <si>
-    <t>Giá</t>
-  </si>
-  <si>
-    <t>Discount</t>
-  </si>
-  <si>
-    <t>Số lượng bán</t>
-  </si>
-  <si>
-    <t>Sản phẩm bán chậm nhất</t>
-  </si>
-  <si>
-    <t>Top 2 sản phẩm bán chạy nhất</t>
-  </si>
-  <si>
     <t>CÔNG TY Điện Thoại VTMobile</t>
   </si>
   <si>
     <t>Hà Nội, ngày……..tháng…….năm………..</t>
+  </si>
+  <si>
+    <t>Từ ngày 01/04/2023 đến ngày 30/04/2023</t>
+  </si>
+  <si>
+    <t>Doanh số bán hàng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giá * Số lượng </t>
+  </si>
+  <si>
+    <t>Giá (VND)</t>
+  </si>
+  <si>
+    <t>Giảm giá (%)</t>
+  </si>
+  <si>
+    <t>Số lượng bán (Chiếc)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0;[Red]#,##0"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00;[Red]#,##0.00"/>
     <numFmt numFmtId="166" formatCode="##,###\ &quot;VNĐ&quot;"/>
     <numFmt numFmtId="167" formatCode="##,###\ &quot;%&quot;"/>
     <numFmt numFmtId="168" formatCode="##,###\ &quot;Chiếc&quot;"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,20 +113,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -299,10 +272,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -315,19 +288,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="15"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -348,32 +309,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="4" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -391,15 +334,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -421,20 +358,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -465,8 +402,8 @@
       <xdr:rowOff>65942</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>730354</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1060066</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>173683</xdr:rowOff>
     </xdr:to>
@@ -518,6 +455,45 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>140805</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>74957</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1533525" cy="790575"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Hình ảnh 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FC01803-FEC1-407A-AEC0-B226D475D756}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="140805" y="74957"/>
+          <a:ext cx="1533525" cy="790575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -842,235 +818,147 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="18" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="15" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="23" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="18" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" style="21" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" style="26" customWidth="1"/>
-    <col min="12" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="10" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" style="15" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" customHeight="1">
-      <c r="A1" s="43"/>
-      <c r="B1" s="44"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="34"/>
-    </row>
-    <row r="2" spans="1:11" ht="18" customHeight="1">
-      <c r="A2" s="43"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="33" t="s">
+    <row r="1" spans="1:6" ht="18" customHeight="1">
+      <c r="A1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+    </row>
+    <row r="2" spans="1:6" ht="18" customHeight="1">
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+    </row>
+    <row r="3" spans="1:6" ht="18" customHeight="1">
+      <c r="A3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+    </row>
+    <row r="4" spans="1:6" ht="18" customHeight="1">
+      <c r="A4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.6" customHeight="1">
+      <c r="A5" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="25"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="18"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="28"/>
+    </row>
+    <row r="7" spans="1:6" ht="30" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="34"/>
-    </row>
-    <row r="3" spans="1:11" ht="18" customHeight="1">
-      <c r="A3" s="43"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="34"/>
-    </row>
-    <row r="4" spans="1:11" ht="18" customHeight="1">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="36"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.6" customHeight="1">
-      <c r="A5" s="29" t="s">
+      <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="39"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="42"/>
-    </row>
-    <row r="7" spans="1:11" ht="30">
-      <c r="A7" s="2" t="s">
+      <c r="D7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="4"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="E9" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="33"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="E10" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="25"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="I9" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="J10" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="E11"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="J13" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="K14" s="9"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="K15" s="27"/>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="8"/>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="8"/>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="8"/>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="8"/>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="8"/>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="8"/>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="8"/>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="8"/>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="8"/>
+      <c r="F10" s="34"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+    </row>
+    <row r="12" spans="1:6" customFormat="1">
+      <c r="C12" s="1"/>
+      <c r="D12" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D1:K1"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="D4:K4"/>
-    <mergeCell ref="D5:G6"/>
-    <mergeCell ref="H5:K6"/>
-    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F6"/>
   </mergeCells>
   <pageMargins left="0.28000000000000003" right="0.19" top="0.37" bottom="0.31" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
